--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ccr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H2">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I2">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J2">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N2">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O2">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P2">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q2">
-        <v>0.04943812036799999</v>
+        <v>7.287324439903777</v>
       </c>
       <c r="R2">
-        <v>0.4449430833119999</v>
+        <v>65.585919959134</v>
       </c>
       <c r="S2">
-        <v>8.92663141860251E-06</v>
+        <v>0.001630807801850196</v>
       </c>
       <c r="T2">
-        <v>8.933045769003785E-06</v>
+        <v>0.001640432465937829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,46 +602,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H3">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I3">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J3">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N3">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O3">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P3">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q3">
-        <v>7.980131231968</v>
+        <v>0.02433573508966667</v>
       </c>
       <c r="R3">
-        <v>71.82118108771199</v>
+        <v>0.146014410538</v>
       </c>
       <c r="S3">
-        <v>0.001440906119601701</v>
+        <v>5.446018902448099E-06</v>
       </c>
       <c r="T3">
-        <v>0.001441941501966342</v>
+        <v>3.652106727946439E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6436919999999999</v>
+        <v>0.2401406666666667</v>
       </c>
       <c r="H4">
-        <v>1.931076</v>
+        <v>0.720422</v>
       </c>
       <c r="I4">
-        <v>0.01042849608821769</v>
+        <v>0.002192729333974893</v>
       </c>
       <c r="J4">
-        <v>0.01043598962356505</v>
+        <v>0.002203844280310985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N4">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O4">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P4">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q4">
-        <v>49.72628732974</v>
+        <v>2.486631228469556</v>
       </c>
       <c r="R4">
-        <v>447.53658596766</v>
+        <v>22.379681056226</v>
       </c>
       <c r="S4">
-        <v>0.008978663337197388</v>
+        <v>0.0005564755132222484</v>
       </c>
       <c r="T4">
-        <v>0.008985115075829705</v>
+        <v>0.0005597597076452094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H5">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I5">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J5">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N5">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O5">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P5">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q5">
-        <v>2.044850151465333</v>
+        <v>19.533519701108</v>
       </c>
       <c r="R5">
-        <v>18.403651363188</v>
+        <v>175.801677309972</v>
       </c>
       <c r="S5">
-        <v>0.0003692216344903688</v>
+        <v>0.004371345970508493</v>
       </c>
       <c r="T5">
-        <v>0.0003694869436342433</v>
+        <v>0.004397144679914495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H6">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I6">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J6">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N6">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O6">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P6">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q6">
-        <v>330.0726734134765</v>
+        <v>0.065231425434</v>
       </c>
       <c r="R6">
-        <v>2970.654060721288</v>
+        <v>0.391388552604</v>
       </c>
       <c r="S6">
-        <v>0.05959848543962883</v>
+        <v>1.459793898307363E-05</v>
       </c>
       <c r="T6">
-        <v>0.05964131072848284</v>
+        <v>9.789395176404801E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>26.62426633333333</v>
+        <v>0.643692</v>
       </c>
       <c r="H7">
-        <v>79.872799</v>
+        <v>1.931076</v>
       </c>
       <c r="I7">
-        <v>0.4313414759059189</v>
+        <v>0.005877564804149375</v>
       </c>
       <c r="J7">
-        <v>0.4316514220927074</v>
+        <v>0.005907358183739276</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N7">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O7">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P7">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q7">
-        <v>2056.769258643663</v>
+        <v>6.665362643212001</v>
       </c>
       <c r="R7">
-        <v>18510.92332779296</v>
+        <v>59.98826378890801</v>
       </c>
       <c r="S7">
-        <v>0.3713737688317996</v>
+        <v>0.001491620894657807</v>
       </c>
       <c r="T7">
-        <v>0.3716406244205904</v>
+        <v>0.001500424108648376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H8">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I8">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J8">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N8">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O8">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P8">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q8">
-        <v>0.010212090252</v>
+        <v>1840.822699521022</v>
       </c>
       <c r="R8">
-        <v>0.061272541512</v>
+        <v>16567.4042956892</v>
       </c>
       <c r="S8">
-        <v>1.843912450848614E-06</v>
+        <v>0.4119520195592473</v>
       </c>
       <c r="T8">
-        <v>1.230158279201907E-06</v>
+        <v>0.4143832685414889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>60.66100033333333</v>
+      </c>
+      <c r="H9">
+        <v>181.983001</v>
+      </c>
+      <c r="I9">
+        <v>0.553896833491318</v>
+      </c>
+      <c r="J9">
+        <v>0.5567045368793268</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.5</v>
       </c>
-      <c r="G9">
-        <v>0.132963</v>
-      </c>
-      <c r="H9">
-        <v>0.265926</v>
-      </c>
-      <c r="I9">
-        <v>0.002154142237867939</v>
-      </c>
-      <c r="J9">
-        <v>0.001437126750390021</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N9">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O9">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P9">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q9">
-        <v>1.648400460152</v>
+        <v>6.147355443279833</v>
       </c>
       <c r="R9">
-        <v>9.890402760912</v>
+        <v>36.884132659679</v>
       </c>
       <c r="S9">
-        <v>0.0002976380013742614</v>
+        <v>0.001375697665215987</v>
       </c>
       <c r="T9">
-        <v>0.0001985679154274101</v>
+        <v>0.0009225444840995744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.132963</v>
+        <v>60.66100033333333</v>
       </c>
       <c r="H10">
-        <v>0.265926</v>
+        <v>181.983001</v>
       </c>
       <c r="I10">
-        <v>0.002154142237867939</v>
+        <v>0.553896833491318</v>
       </c>
       <c r="J10">
-        <v>0.001437126750390021</v>
+        <v>0.5567045368793268</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N10">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O10">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P10">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q10">
-        <v>10.271614906235</v>
+        <v>628.1382486059648</v>
       </c>
       <c r="R10">
-        <v>61.62968943740999</v>
+        <v>5653.244237453683</v>
       </c>
       <c r="S10">
-        <v>0.001854660324042829</v>
+        <v>0.1405691162668546</v>
       </c>
       <c r="T10">
-        <v>0.001237328676683409</v>
+        <v>0.1413987238537383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H11">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I11">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J11">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N11">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O11">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P11">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q11">
-        <v>2.63617556566</v>
+        <v>50.28411359614417</v>
       </c>
       <c r="R11">
-        <v>23.72558009094</v>
+        <v>301.704681576865</v>
       </c>
       <c r="S11">
-        <v>0.0004759923608383089</v>
+        <v>0.01125292628837536</v>
       </c>
       <c r="T11">
-        <v>0.0004763343915156801</v>
+        <v>0.007546225700462972</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>34.323415</v>
+        <v>1.6570225</v>
       </c>
       <c r="H12">
-        <v>102.970245</v>
+        <v>3.314045</v>
       </c>
       <c r="I12">
-        <v>0.5560758857679955</v>
+        <v>0.0151303063043872</v>
       </c>
       <c r="J12">
-        <v>0.5564754615333375</v>
+        <v>0.01013800122420362</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N12">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O12">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P12">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q12">
-        <v>425.5223865284934</v>
+        <v>0.16792183163875</v>
       </c>
       <c r="R12">
-        <v>3829.70147875644</v>
+        <v>0.6716873265550001</v>
       </c>
       <c r="S12">
-        <v>0.07683304859953027</v>
+        <v>3.75787074386199E-05</v>
       </c>
       <c r="T12">
-        <v>0.07688825801425848</v>
+        <v>1.68002171521931E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>1.6570225</v>
+      </c>
+      <c r="H13">
+        <v>3.314045</v>
+      </c>
+      <c r="I13">
+        <v>0.0151303063043872</v>
+      </c>
+      <c r="J13">
+        <v>0.01013800122420362</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.35489433333333</v>
+      </c>
+      <c r="N13">
+        <v>31.064683</v>
+      </c>
+      <c r="O13">
+        <v>0.2537821265032705</v>
+      </c>
+      <c r="P13">
+        <v>0.2539924043844974</v>
+      </c>
+      <c r="Q13">
+        <v>17.15829289545584</v>
+      </c>
+      <c r="R13">
+        <v>102.949757372735</v>
+      </c>
+      <c r="S13">
+        <v>0.003839801308573225</v>
+      </c>
+      <c r="T13">
+        <v>0.002574975306588455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H14">
+        <v>138.944788</v>
+      </c>
+      <c r="I14">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J14">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.34606566666666</v>
+      </c>
+      <c r="N14">
+        <v>91.038197</v>
+      </c>
+      <c r="O14">
+        <v>0.7437342022026642</v>
+      </c>
+      <c r="P14">
+        <v>0.744350442811843</v>
+      </c>
+      <c r="Q14">
+        <v>1405.47588689636</v>
+      </c>
+      <c r="R14">
+        <v>12649.28298206724</v>
+      </c>
+      <c r="S14">
+        <v>0.3145271025826828</v>
+      </c>
+      <c r="T14">
+        <v>0.3163833714240389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>34.323415</v>
-      </c>
-      <c r="H13">
-        <v>102.970245</v>
-      </c>
-      <c r="I13">
-        <v>0.5560758857679955</v>
-      </c>
-      <c r="J13">
-        <v>0.5564754615333375</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>77.25167833333333</v>
-      </c>
-      <c r="N13">
-        <v>231.755035</v>
-      </c>
-      <c r="O13">
-        <v>0.8609739373006667</v>
-      </c>
-      <c r="P13">
-        <v>0.8609739373006668</v>
-      </c>
-      <c r="Q13">
-        <v>2651.541414881508</v>
-      </c>
-      <c r="R13">
-        <v>23863.87273393357</v>
-      </c>
-      <c r="S13">
-        <v>0.4787668448076269</v>
-      </c>
-      <c r="T13">
-        <v>0.4791108691275633</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H15">
+        <v>138.944788</v>
+      </c>
+      <c r="I15">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J15">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0.1013395</v>
+      </c>
+      <c r="N15">
+        <v>0.202679</v>
+      </c>
+      <c r="O15">
+        <v>0.002483671294065179</v>
+      </c>
+      <c r="P15">
+        <v>0.001657152803659562</v>
+      </c>
+      <c r="Q15">
+        <v>4.693531781175333</v>
+      </c>
+      <c r="R15">
+        <v>28.161190687052</v>
+      </c>
+      <c r="S15">
+        <v>0.001050350963525051</v>
+      </c>
+      <c r="T15">
+        <v>0.0007043666005034435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>46.31492933333334</v>
+      </c>
+      <c r="H16">
+        <v>138.944788</v>
+      </c>
+      <c r="I16">
+        <v>0.4229025660661706</v>
+      </c>
+      <c r="J16">
+        <v>0.4250462594324195</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.35489433333333</v>
+      </c>
+      <c r="N16">
+        <v>31.064683</v>
+      </c>
+      <c r="O16">
+        <v>0.2537821265032705</v>
+      </c>
+      <c r="P16">
+        <v>0.2539924043844974</v>
+      </c>
+      <c r="Q16">
+        <v>479.5861993024672</v>
+      </c>
+      <c r="R16">
+        <v>4316.275793722205</v>
+      </c>
+      <c r="S16">
+        <v>0.1073251125199626</v>
+      </c>
+      <c r="T16">
+        <v>0.1079585214078771</v>
       </c>
     </row>
   </sheetData>
